--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D0C1D2-73EE-45AA-A7FF-305A08BC661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C001A-C703-45A6-AC10-523A0136779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
@@ -103,24 +103,32 @@
     <t>Wide Column - NoSQL (Cassandra)</t>
   </si>
   <si>
-    <t>leg_ccy[2]</t>
-  </si>
-  <si>
-    <t>leg_ccy[1]</t>
-  </si>
-  <si>
-    <t>leg_type[1]</t>
-  </si>
-  <si>
-    <t>leg_type[2]</t>
+    <t>leg_type:1</t>
+  </si>
+  <si>
+    <t>leg_type:2</t>
+  </si>
+  <si>
+    <t>leg_ccy:1</t>
+  </si>
+  <si>
+    <t>leg_ccy:2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -145,21 +153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -212,78 +205,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -291,9 +220,16 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -307,6 +243,24 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -316,25 +270,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,8 +325,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>42090</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -387,7 +345,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -432,8 +390,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>144690</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -452,7 +410,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -497,8 +455,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>164130</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -517,7 +475,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -562,8 +520,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>95370</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -582,7 +540,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -1022,386 +980,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
-  <dimension ref="A2:L25"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="13" width="9.3671875" customWidth="1"/>
+    <col min="1" max="13" width="9.3671875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I7" s="13" t="s">
+    <row r="7" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I8" s="13" t="s">
+    <row r="8" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="9" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9" t="s">
+    </row>
+    <row r="18" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="21" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="22" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="13" t="s">
+    </row>
+    <row r="23" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="13" t="s">
+    </row>
+    <row r="24" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C001A-C703-45A6-AC10-523A0136779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D101F856-AB4E-4DF4-8445-8D7712A8D4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Swap Schema" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>trade_id</t>
   </si>
@@ -94,15 +94,6 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>Relational - SQL (MySQL, Postgres)</t>
-  </si>
-  <si>
-    <t>Document - NoSQL (MongoDB)</t>
-  </si>
-  <si>
-    <t>Wide Column - NoSQL (Cassandra)</t>
-  </si>
-  <si>
     <t>leg_type:1</t>
   </si>
   <si>
@@ -113,6 +104,21 @@
   </si>
   <si>
     <t>leg_ccy:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;&lt; JOIN</t>
+  </si>
+  <si>
+    <t>Relational Database, SQL (MySQL, Postgres) - Join from leg to trade</t>
+  </si>
+  <si>
+    <t>Document Database, NoSQL (MongoDB) - Embed list of each leg attribute in its own column</t>
+  </si>
+  <si>
+    <t>Document Database, NoSQL (MongoDB) - Embed list of leg documents in a single column</t>
+  </si>
+  <si>
+    <t>Wide Column Database, NoSQL (Cassandra) - One attribute of one leg per column</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -262,6 +268,32 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -283,16 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,379 +340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414660</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>415020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42090</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Ink 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB677301-8628-3F64-CC83-CEEF85DDD71D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3805560" y="2628720"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Ink 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB677301-8628-3F64-CC83-CEEF85DDD71D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3796920" y="2619720"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414660</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>415020</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144690</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Ink 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7868C5F-5677-A942-0903-37D09D4129F2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3805560" y="2365560"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Ink 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7868C5F-5677-A942-0903-37D09D4129F2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3796920" y="2356920"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647220</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>163770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647580</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>164130</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018299AC-F793-773B-3B6A-FEDEF493A223}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4038120" y="2567880"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Ink 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018299AC-F793-773B-3B6A-FEDEF493A223}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4029480" y="2558880"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>415020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95370</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BD7CF8-0174-4008-2CA1-3787B50DA084}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="3805560" y="2499120"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Ink 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BD7CF8-0174-4008-2CA1-3787B50DA084}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3796920" y="2490120"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-08-15T10:15:21.229"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-08-15T10:15:21.631"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-08-15T10:15:24.393"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2022-08-15T10:15:24.766"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,27 +639,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="13" width="9.3671875" style="1" customWidth="1"/>
+    <col min="1" max="10" width="10.26171875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.3671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1009,20 +669,23 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1035,20 +698,20 @@
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="I5" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1061,54 +724,54 @@
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1117,12 +780,14 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1132,170 +797,253 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G22" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+    <row r="23" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+    <row r="26" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="6" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="30" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="22" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="31" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="5" t="s">
+    <row r="32" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D101F856-AB4E-4DF4-8445-8D7712A8D4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D826A6D-DFAE-41B5-9459-0558517D7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
@@ -112,13 +112,13 @@
     <t>Relational Database, SQL (MySQL, Postgres) - Join from leg to trade</t>
   </si>
   <si>
-    <t>Document Database, NoSQL (MongoDB) - Embed list of each leg attribute in its own column</t>
-  </si>
-  <si>
-    <t>Document Database, NoSQL (MongoDB) - Embed list of leg documents in a single column</t>
-  </si>
-  <si>
     <t>Wide Column Database, NoSQL (Cassandra) - One attribute of one leg per column</t>
+  </si>
+  <si>
+    <t>Document Database, NoSQL (MongoDB) - Deep style of embedding (entire leg document list in a single column)</t>
+  </si>
+  <si>
+    <t>Document Database, NoSQL (MongoDB) - Shallow style of embedding (each leg attribute list in its own column)</t>
   </si>
 </sst>
 </file>
@@ -317,14 +317,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +642,7 @@
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -866,10 +866,10 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
@@ -884,10 +884,10 @@
       <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -928,10 +928,10 @@
       <c r="E24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>

--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D826A6D-DFAE-41B5-9459-0558517D7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99362E2F-52FE-463F-BB0C-8E9A2C8B33F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>trade_id</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>L22</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>trade_type</t>
@@ -302,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -312,7 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -639,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -652,396 +648,328 @@
     <col min="14" max="16384" width="8.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G8" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="20" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="30" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="30" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99362E2F-52FE-463F-BB0C-8E9A2C8B33F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD819B0C-E057-435A-9F9D-6DDB1687BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
   <sheets>
-    <sheet name="Swap Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Swap and Legs Schema" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>trade_id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Fixed</t>
   </si>
   <si>
-    <t>legs</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>Document Database, NoSQL (MongoDB) - Shallow style of embedding (each leg attribute list in its own column)</t>
+  </si>
+  <si>
+    <t>leg_type[]</t>
+  </si>
+  <si>
+    <t>leg_ccy[]</t>
+  </si>
+  <si>
+    <t>legs[]</t>
   </si>
 </sst>
 </file>
@@ -139,13 +145,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -299,28 +317,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,9 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -649,322 +675,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
+    <row r="8" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6" t="s">
-        <v>26</v>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="6" t="s">
-        <v>25</v>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="20" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="11" t="s">
+    </row>
+    <row r="23" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="26" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>15</v>
+      <c r="E26" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="6" t="s">
-        <v>24</v>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="30" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="31" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="32" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>15</v>
+      <c r="F32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD819B0C-E057-435A-9F9D-6DDB1687BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B0861-5639-4E4B-952E-45CBADC54EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
   <si>
     <t>trade_id</t>
   </si>
@@ -103,18 +103,6 @@
     <t xml:space="preserve">  &lt;&lt; JOIN</t>
   </si>
   <si>
-    <t>Relational Database, SQL (MySQL, Postgres) - Join from leg to trade</t>
-  </si>
-  <si>
-    <t>Wide Column Database, NoSQL (Cassandra) - One attribute of one leg per column</t>
-  </si>
-  <si>
-    <t>Document Database, NoSQL (MongoDB) - Deep style of embedding (entire leg document list in a single column)</t>
-  </si>
-  <si>
-    <t>Document Database, NoSQL (MongoDB) - Shallow style of embedding (each leg attribute list in its own column)</t>
-  </si>
-  <si>
     <t>leg_type[]</t>
   </si>
   <si>
@@ -122,6 +110,27 @@
   </si>
   <si>
     <t>legs[]</t>
+  </si>
+  <si>
+    <t>Wide Column Database, NoSQL (Cassandra)</t>
+  </si>
+  <si>
+    <t>Document Database, NoSQL (MongoDB)</t>
+  </si>
+  <si>
+    <t>Tree representation style (entire leg document list in a single column)</t>
+  </si>
+  <si>
+    <t>Wide representation style - one attribute of one leg per column</t>
+  </si>
+  <si>
+    <t>Table style of embedding (each leg attribute list in its own column)</t>
+  </si>
+  <si>
+    <t>Relational Database, SQL (MySQL, Postgres)</t>
+  </si>
+  <si>
+    <t>Join from leg to trade</t>
   </si>
 </sst>
 </file>
@@ -317,18 +326,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -349,6 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,9 +673,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -676,326 +686,346 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="11" t="s">
+    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="12" t="s">
+    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E7" s="12" t="s">
+    <row r="8" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E8" s="12" t="s">
+    <row r="9" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="23" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="4" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="34" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="7" t="s">
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="G35" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="20" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="30" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/diagrams/swap_and_legs.xlsx
+++ b/diagrams/swap_and_legs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Training\enterprise-python\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129B0861-5639-4E4B-952E-45CBADC54EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D7497-DEBE-45FA-84D8-4DACA10E9CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1E47582C-70E2-4F44-B477-E6F31E9C6A07}"/>
   </bookViews>
@@ -121,16 +121,16 @@
     <t>Tree representation style (entire leg document list in a single column)</t>
   </si>
   <si>
-    <t>Wide representation style - one attribute of one leg per column</t>
-  </si>
-  <si>
-    <t>Table style of embedding (each leg attribute list in its own column)</t>
-  </si>
-  <si>
     <t>Relational Database, SQL (MySQL, Postgres)</t>
   </si>
   <si>
-    <t>Join from leg to trade</t>
+    <t>Wide representation style (one attribute of one leg per column)</t>
+  </si>
+  <si>
+    <t>Table representation style (each leg attribute list in its own column)</t>
+  </si>
+  <si>
+    <t>Relational representation style (join from leg to trade)</t>
   </si>
 </sst>
 </file>
@@ -352,13 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01074092-0384-46DF-97C0-73D41A91A4CA}">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -686,13 +688,13 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -795,7 +797,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -879,10 +881,10 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="5" t="s">
@@ -959,7 +961,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
